--- a/Donnee/VenteManga/VenteManga.xlsx
+++ b/Donnee/VenteManga/VenteManga.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\assef\OneDrive\Bureau\1HEIG\semetre 2\VisualDonne\Projet\Donnee\VenteManga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\assef\OneDrive\Bureau\1HEIG\semetre 2\VisualDonne\Projet\Site\Donnee\VenteManga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1651E0-0694-4270-BA2A-8246D685023B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B01FEFE-7BD3-4B30-B3F3-E30D67618CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="1212" windowWidth="14256" windowHeight="12528" xr2:uid="{8D9CB432-5EE2-4838-8E8F-2E5A7D9454E7}"/>
+    <workbookView xWindow="7452" yWindow="1740" windowWidth="14256" windowHeight="12528" xr2:uid="{8D9CB432-5EE2-4838-8E8F-2E5A7D9454E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Année</t>
   </si>
@@ -225,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -237,6 +234,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,225 +553,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C47032-4437-4915-A23A-4EAEF0248BBA}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3">
-        <v>1997</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3">
-        <v>1998</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3">
-        <v>1999</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="3">
-        <v>2001</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3">
-        <v>2002</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
-        <v>2003</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
-        <v>2004</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="3">
-        <v>2005</v>
-      </c>
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
-        <v>2006</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
-        <v>2007</v>
-      </c>
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
-        <v>2008</v>
-      </c>
-      <c r="C14" s="4" t="s">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="3">
-        <v>2009</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
-        <v>2011</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="3">
-        <v>2012</v>
-      </c>
-      <c r="C18" s="4" t="s">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
-        <v>2013</v>
-      </c>
-      <c r="C19" s="4" t="s">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
-        <v>2014</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="3">
-        <v>2015</v>
-      </c>
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
-        <v>2016</v>
-      </c>
-      <c r="C22" s="4" t="s">
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C23" s="4" t="s">
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C24" s="4" t="s">
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
-        <v>2019</v>
-      </c>
-      <c r="C25" s="4" t="s">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="3">
-        <v>2020</v>
-      </c>
-      <c r="C26" s="4" t="s">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="3">
-        <v>2021</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Donnee/VenteManga/VenteManga.xlsx
+++ b/Donnee/VenteManga/VenteManga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\assef\OneDrive\Bureau\1HEIG\semetre 2\VisualDonne\Projet\Site\Donnee\VenteManga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B01FEFE-7BD3-4B30-B3F3-E30D67618CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49E6C22-4B62-4632-BC18-D677E64CF34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7452" yWindow="1740" windowWidth="14256" windowHeight="12528" xr2:uid="{8D9CB432-5EE2-4838-8E8F-2E5A7D9454E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8D9CB432-5EE2-4838-8E8F-2E5A7D9454E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,87 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Année</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Ventes au Japon</t>
   </si>
   <si>
-    <t>1,822,218</t>
-  </si>
-  <si>
-    <t>5,310,427</t>
-  </si>
-  <si>
-    <t>5,580,271</t>
-  </si>
-  <si>
-    <t>5,355,206</t>
-  </si>
-  <si>
-    <t>4,813,183</t>
-  </si>
-  <si>
-    <t>4,254,073</t>
-  </si>
-  <si>
-    <t>3,794,620</t>
-  </si>
-  <si>
-    <t>3,581,786</t>
-  </si>
-  <si>
-    <t>3,382,467</t>
-  </si>
-  <si>
-    <t>3,434,777</t>
-  </si>
-  <si>
-    <t>3,444,014</t>
-  </si>
-  <si>
-    <t>4,261,054</t>
-  </si>
-  <si>
-    <t>5,002,885</t>
-  </si>
-  <si>
-    <t>5,307,870</t>
-  </si>
-  <si>
-    <t>4,734,778</t>
-  </si>
-  <si>
-    <t>3,782,159</t>
-  </si>
-  <si>
-    <t>3,799,410</t>
-  </si>
-  <si>
-    <t>4,089,586</t>
-  </si>
-  <si>
-    <t>4,442,492</t>
-  </si>
-  <si>
-    <t>3,747,273</t>
-  </si>
-  <si>
-    <t>2,752,727</t>
-  </si>
-  <si>
-    <t>2,868,164</t>
-  </si>
-  <si>
-    <t>2,988,003</t>
-  </si>
-  <si>
-    <t>2,630,293</t>
-  </si>
-  <si>
-    <t>2,357,214</t>
+    <t>Annee</t>
   </si>
 </sst>
 </file>
@@ -555,218 +480,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C47032-4437-4915-A23A-4EAEF0248BBA}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1997</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
+      <c r="B2" s="5">
+        <v>1822218</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1998</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
+      <c r="B3" s="4">
+        <v>5310427</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1999</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" s="4">
+        <v>5580271</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2000</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
+      <c r="B5" s="4">
+        <v>5355206</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2001</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
+      <c r="B6" s="4">
+        <v>4813183</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2002</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
+      <c r="B7" s="4">
+        <v>4254073</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>2003</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
+      <c r="B8" s="4">
+        <v>3794620</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2004</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
+      <c r="B9" s="4">
+        <v>3581786</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2005</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
+      <c r="B10" s="4">
+        <v>3382467</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2006</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
+      <c r="B11" s="4">
+        <v>3434777</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2007</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
+      <c r="B12" s="4">
+        <v>3444014</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2008</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
+      <c r="B13" s="4">
+        <v>4261054</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2009</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
+      <c r="B14" s="4">
+        <v>5002885</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2010</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
+      <c r="B15" s="4">
+        <v>5307870</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2011</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
+      <c r="B16" s="4">
+        <v>4734778</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2012</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
+      <c r="B17" s="4">
+        <v>3782159</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2013</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
+      <c r="B18" s="4">
+        <v>3799410</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2014</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>19</v>
+      <c r="B19" s="4">
+        <v>4089586</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>2015</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
+      <c r="B20" s="4">
+        <v>4442492</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>2016</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
+      <c r="B21" s="4">
+        <v>3747273</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2017</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>22</v>
+      <c r="B22" s="4">
+        <v>2752727</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2018</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
+      <c r="B23" s="4">
+        <v>2868164</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>2019</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>24</v>
+      <c r="B24" s="4">
+        <v>2988003</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>2020</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>25</v>
+      <c r="B25" s="4">
+        <v>2630293</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>2021</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>26</v>
+      <c r="B26" s="4">
+        <v>2357214</v>
       </c>
     </row>
   </sheetData>
